--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>845170.5291210441</v>
+        <v>842510.6855959675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11189511.94688903</v>
+        <v>11189511.94688904</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11584267.27101917</v>
+        <v>11584267.27101916</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>71.16376048495907</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>12.95383262423903</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>65.65340742923981</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.52598804182478</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>200.9838803217804</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>195.6781478000618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>247.0807033756857</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>206.3137109670454</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>166.4805989931235</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.24364034742719</v>
+        <v>158.1312558370123</v>
       </c>
       <c r="H8" t="n">
-        <v>308.145823246979</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234855</v>
+        <v>92.5400460123481</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.3108928771024</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7046517124901</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792041</v>
+        <v>96.42777606792035</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152314</v>
+        <v>33.04322907152292</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729025</v>
+        <v>141.2810481729024</v>
       </c>
       <c r="T9" t="n">
         <v>193.5674321249209</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>79.12437605678723</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0270165858486</v>
+        <v>150.0270165858485</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340315</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.1027954790071</v>
       </c>
       <c r="T10" t="n">
         <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.74661556393889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>357.8548625742306</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>220.3364097400125</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114097</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.13236242292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.12932374478972</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672515</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868892</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>18.22623717053357</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>153.5842618151916</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795613</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>48.47457675531552</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365892</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>109.0909680372342</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.88943397770208</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>49.33106662725103</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>72.97607332171643</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>98.42683230404785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>64.91921363453632</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>143.7703193541469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456781</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>176.1811323375791</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.922891047987</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="C2" t="n">
-        <v>1239.040304699543</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="D2" t="n">
-        <v>880.774606092793</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="E2" t="n">
-        <v>880.774606092793</v>
+        <v>516.7490625085843</v>
       </c>
       <c r="F2" t="n">
-        <v>469.7887013031854</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>784.1365874146478</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M2" t="n">
-        <v>1415.85439839796</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942443</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.354273725794</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.291386382223</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.522731112109</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.522731112109</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.522731112109</v>
+        <v>1289.13715517095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.150115568437</v>
+        <v>528.1332110007638</v>
       </c>
       <c r="M3" t="n">
-        <v>1184.647451923041</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O3" t="n">
         <v>1980.364752439338</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
         <v>2613.934077382829</v>
@@ -4440,19 +4440,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.57550729897547</v>
+        <v>516.110805624533</v>
       </c>
       <c r="C4" t="n">
-        <v>70.57550729897547</v>
+        <v>516.110805624533</v>
       </c>
       <c r="D4" t="n">
-        <v>70.57550729897547</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E4" t="n">
-        <v>70.57550729897547</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F4" t="n">
-        <v>70.57550729897547</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4513,25 +4513,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U4" t="n">
-        <v>553.2495464028797</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V4" t="n">
-        <v>298.5650581969928</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W4" t="n">
-        <v>298.5650581969928</v>
+        <v>516.110805624533</v>
       </c>
       <c r="X4" t="n">
-        <v>70.57550729897547</v>
+        <v>516.110805624533</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.57550729897547</v>
+        <v>516.110805624533</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>914.6502878797686</v>
+        <v>1635.525375631449</v>
       </c>
       <c r="C5" t="n">
-        <v>914.6502878797686</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D5" t="n">
-        <v>914.6502878797686</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E5" t="n">
-        <v>914.6502878797686</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M5" t="n">
-        <v>1661.933351782553</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N5" t="n">
-        <v>1856.267564674535</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2275.81691895042</v>
       </c>
       <c r="U5" t="n">
-        <v>2225.139236222622</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="V5" t="n">
-        <v>2225.139236222622</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="W5" t="n">
-        <v>1872.370580952507</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.904822691428</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1301.25012794389</v>
+        <v>2022.125215695571</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>125.068650245342</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>454.4970545511518</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>591.7266525668458</v>
+        <v>599.2575280293014</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
         <v>1430.928743686615</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.5116902268824</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4762,13 +4762,13 @@
         <v>489.0881582831306</v>
       </c>
       <c r="W7" t="n">
-        <v>239.5116902268824</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="X7" t="n">
-        <v>239.5116902268824</v>
+        <v>261.0986073851133</v>
       </c>
       <c r="Y7" t="n">
-        <v>239.5116902268824</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1399.659925786945</v>
+        <v>1040.077971037353</v>
       </c>
       <c r="C8" t="n">
-        <v>1030.697408846534</v>
+        <v>671.115454096941</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5351876413583</v>
+        <v>312.8497554901905</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7469350431141</v>
+        <v>312.8497554901905</v>
       </c>
       <c r="F8" t="n">
-        <v>469.8014342939106</v>
+        <v>305.904254740987</v>
       </c>
       <c r="G8" t="n">
-        <v>457.4341208116609</v>
+        <v>146.1757134914796</v>
       </c>
       <c r="H8" t="n">
-        <v>146.1757134914801</v>
+        <v>146.1757134914796</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>130.5061518135611</v>
+        <v>130.5061518135622</v>
       </c>
       <c r="K8" t="n">
-        <v>297.8545443123811</v>
+        <v>618.7585027578368</v>
       </c>
       <c r="L8" t="n">
-        <v>950.0284236150901</v>
+        <v>863.2707434676792</v>
       </c>
       <c r="M8" t="n">
-        <v>1253.76484131388</v>
+        <v>1167.007161166471</v>
       </c>
       <c r="N8" t="n">
-        <v>1567.029840176518</v>
+        <v>1819.181040469181</v>
       </c>
       <c r="O8" t="n">
-        <v>2219.203719479227</v>
+        <v>2101.653034498194</v>
       </c>
       <c r="P8" t="n">
-        <v>2425.786030303482</v>
+        <v>2308.235345322451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2593.177001405961</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.327903367408</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2494.327903367408</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="U8" t="n">
-        <v>2494.327903367408</v>
+        <v>2169.5857983474</v>
       </c>
       <c r="V8" t="n">
-        <v>2163.265016023837</v>
+        <v>2169.5857983474</v>
       </c>
       <c r="W8" t="n">
-        <v>2163.265016023837</v>
+        <v>1816.817143077286</v>
       </c>
       <c r="X8" t="n">
-        <v>1789.799257762757</v>
+        <v>1816.817143077286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1399.659925786945</v>
+        <v>1426.677811101474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.7166957240912</v>
+        <v>949.716695724091</v>
       </c>
       <c r="C9" t="n">
-        <v>775.2636664429642</v>
+        <v>775.263666442964</v>
       </c>
       <c r="D9" t="n">
-        <v>626.329256781713</v>
+        <v>626.3292567817127</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762574</v>
+        <v>467.0918017762572</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031424</v>
+        <v>320.5572438031421</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097579</v>
+        <v>183.4797126097576</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175743</v>
+        <v>86.07791860175722</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>80.22333590578171</v>
+        <v>205.053460892787</v>
       </c>
       <c r="K9" t="n">
-        <v>205.4183539064706</v>
+        <v>592.0690635359298</v>
       </c>
       <c r="L9" t="n">
-        <v>787.2129886388088</v>
+        <v>1148.676116118927</v>
       </c>
       <c r="M9" t="n">
-        <v>1057.071094419159</v>
+        <v>1418.534221899278</v>
       </c>
       <c r="N9" t="n">
-        <v>1348.480186187407</v>
+        <v>1709.943313667528</v>
       </c>
       <c r="O9" t="n">
-        <v>1982.766474653448</v>
+        <v>2344.229602133571</v>
       </c>
       <c r="P9" t="n">
-        <v>2474.834073137022</v>
+        <v>2521.019059663607</v>
       </c>
       <c r="Q9" t="n">
         <v>2589.278933760978</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.2499474456656</v>
+        <v>434.2836121263282</v>
       </c>
       <c r="C10" t="n">
-        <v>501.2499474456656</v>
+        <v>434.2836121263282</v>
       </c>
       <c r="D10" t="n">
-        <v>351.1333080333299</v>
+        <v>284.1669727139924</v>
       </c>
       <c r="E10" t="n">
-        <v>351.1333080333299</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="F10" t="n">
         <v>204.2433605354195</v>
@@ -4960,52 +4960,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205245</v>
+        <v>56.32012312205283</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969982</v>
+        <v>192.1044230969992</v>
       </c>
       <c r="L10" t="n">
-        <v>421.388012769621</v>
+        <v>421.3880127696227</v>
       </c>
       <c r="M10" t="n">
-        <v>673.5245332424496</v>
+        <v>673.5245332424522</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331206</v>
+        <v>925.100427233124</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557394</v>
+        <v>1141.455188557398</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081415</v>
+        <v>1303.06338108142</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617904</v>
       </c>
       <c r="R10" t="n">
-        <v>1214.755785775443</v>
+        <v>1331.517436617904</v>
       </c>
       <c r="S10" t="n">
-        <v>1214.755785775443</v>
+        <v>1129.393400780523</v>
       </c>
       <c r="T10" t="n">
-        <v>990.4299990970933</v>
+        <v>905.0676141021738</v>
       </c>
       <c r="U10" t="n">
-        <v>990.4299990970933</v>
+        <v>615.9320769565679</v>
       </c>
       <c r="V10" t="n">
-        <v>990.4299990970933</v>
+        <v>615.9320769565679</v>
       </c>
       <c r="W10" t="n">
-        <v>990.4299990970933</v>
+        <v>615.9320769565679</v>
       </c>
       <c r="X10" t="n">
-        <v>762.4404481990759</v>
+        <v>615.9320769565679</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.8984122759053</v>
+        <v>615.9320769565679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1535.258832689355</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1535.258832689355</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="D11" t="n">
-        <v>1535.258832689355</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="E11" t="n">
-        <v>1149.470580091111</v>
+        <v>804.8267575931455</v>
       </c>
       <c r="F11" t="n">
-        <v>738.4846753015036</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9092296311505</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856287</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882245</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234595</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455665</v>
+        <v>3826.588132455655</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971445</v>
+        <v>3622.786021971435</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604053</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260483</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990368</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729288</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753477</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246919</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831296</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104395</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754329</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105396</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971146</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2351.938665441777</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.3037376182305</v>
+        <v>395.3603427349918</v>
       </c>
       <c r="C13" t="n">
-        <v>632.3675546903236</v>
+        <v>226.4241598070848</v>
       </c>
       <c r="D13" t="n">
-        <v>482.2509152779878</v>
+        <v>226.4241598070848</v>
       </c>
       <c r="E13" t="n">
-        <v>334.3378216955948</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="F13" t="n">
-        <v>187.4478741976845</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457696</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888922</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.28868156432</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004608</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.513486798721</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.096316761761</v>
+        <v>834.2956531176399</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.096316761761</v>
+        <v>797.8013867087616</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.3037376182305</v>
+        <v>577.0088075652315</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614631</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007881</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409637</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200289</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364356</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060304</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4986375524489</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>561.2235631333352</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>561.2235631333352</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="M15" t="n">
-        <v>1153.241917385463</v>
+        <v>1016.37775261609</v>
       </c>
       <c r="N15" t="n">
-        <v>1775.337880784799</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.214355784993</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220735</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>389.8182101363267</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933746</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.96543383387</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.286651548252</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2190.286651548252</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1935.602163342365</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.184993305405</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407387</v>
+        <v>896.5000339958433</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523132</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984131</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860774</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036843</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.538088945957</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180502</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>599.6019060180502</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>451.688812435657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854703</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761968</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>470.7064074803618</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803618</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979687</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,16 +6382,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.28419561186</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536374</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257305</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133949</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330914</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6625,10 +6625,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2330.088019603116</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2110.486554626057</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1277.309669727407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311987</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032918</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909561</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>334.7259677085631</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614385</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7129,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,25 +7181,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654816</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830886</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,10 +7336,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,16 +7494,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.974531143471</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155642</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133955</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133953</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
@@ -7988,7 +7988,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>335.3310259116176</v>
+        <v>292.1126504237868</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>8.862918322875885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>48.10560617263502</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,19 +8222,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>154.8683541940946</v>
       </c>
       <c r="O5" t="n">
-        <v>145.7678996245036</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>79.33192306650325</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>345.1708998087248</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>411.7794329220895</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>342.3322024647164</v>
       </c>
       <c r="O8" t="n">
-        <v>373.4362477512094</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>103.3312941174208</v>
+        <v>179.7774652349442</v>
       </c>
       <c r="R8" t="n">
-        <v>23.42452535310315</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>345.3983431324057</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.6515015420061</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.05672894381739</v>
+        <v>44.05672894381699</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.07550749803119</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>69.23230694066469</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.6727361253</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>189.5803316442475</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728922</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729281</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173868</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>163.1122511879254</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>13.6625592834362</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253352</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844822927</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>96.94647126761572</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>58.15585306139367</v>
+        <v>43.26526345295035</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.6952193743927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>131.6952193743936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>72.44497470121482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.1578210480469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>4.845153664065435</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294976</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1038894.427715987</v>
+        <v>1038894.427715986</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908383.1842849164</v>
+        <v>908383.1842849154</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988772.2159416989</v>
+        <v>988772.2159416993</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>994244.080305369</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>994244.0803053686</v>
+        <v>994244.0803053685</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>994244.0803053686</v>
+        <v>994244.0803053688</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053685</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787484</v>
+        <v>431046.9291787483</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787485</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787484</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713451</v>
+        <v>386954.4379713447</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.880109966</v>
+        <v>421406.8801099662</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372531</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991848</v>
+        <v>143427.3523991874</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.6534729337</v>
+        <v>458840.6534729291</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051395</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557941</v>
+        <v>11167.23623557892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.89743135551</v>
+        <v>80399.89743135494</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584887</v>
+        <v>43782.40655848954</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224912</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>156827.9060218339</v>
+        <v>156827.9060218333</v>
       </c>
       <c r="E4" t="n">
-        <v>6188.359574389009</v>
+        <v>6188.359574389008</v>
       </c>
       <c r="F4" t="n">
-        <v>6280.947910469699</v>
+        <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695072</v>
+        <v>6287.480531695058</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629357</v>
+        <v>90269.01801629363</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214718</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-632173.6653442066</v>
+        <v>-632173.6653442067</v>
       </c>
       <c r="C6" t="n">
-        <v>160473.7483667784</v>
+        <v>160473.7483667783</v>
       </c>
       <c r="D6" t="n">
-        <v>40522.65274143654</v>
+        <v>40522.65274143404</v>
       </c>
       <c r="E6" t="n">
-        <v>-164168.2972381248</v>
+        <v>-164378.2614819652</v>
       </c>
       <c r="F6" t="n">
-        <v>148462.4565805212</v>
+        <v>148416.5515849529</v>
       </c>
       <c r="G6" t="n">
-        <v>305174.7182460715</v>
+        <v>305139.9803206365</v>
       </c>
       <c r="H6" t="n">
-        <v>316341.9544816509</v>
+        <v>316307.2165562154</v>
       </c>
       <c r="I6" t="n">
-        <v>316341.954481651</v>
+        <v>316307.2165562154</v>
       </c>
       <c r="J6" t="n">
-        <v>143980.9620813702</v>
+        <v>143946.2241559346</v>
       </c>
       <c r="K6" t="n">
-        <v>316341.9544816508</v>
+        <v>316307.2165562153</v>
       </c>
       <c r="L6" t="n">
-        <v>316341.954481651</v>
+        <v>316307.2165562154</v>
       </c>
       <c r="M6" t="n">
-        <v>235942.0570502956</v>
+        <v>235907.3191248605</v>
       </c>
       <c r="N6" t="n">
-        <v>272559.5479231622</v>
+        <v>272524.8099977258</v>
       </c>
       <c r="O6" t="n">
-        <v>313318.6565044259</v>
+        <v>313283.9185789908</v>
       </c>
       <c r="P6" t="n">
-        <v>316341.954481651</v>
+        <v>316307.2165562153</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673306</v>
+        <v>760.9504204673335</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26796,13 +26796,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086488</v>
+        <v>981.3883278086465</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292655</v>
+        <v>167.4743201292685</v>
       </c>
       <c r="E3" t="n">
-        <v>451.219847027226</v>
+        <v>451.2198470272212</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634882</v>
+        <v>322.6268335634859</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634882</v>
+        <v>322.6268335634859</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517357</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634882</v>
+        <v>322.6268335634859</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>294.1091312860485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>393.9222131174724</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>220.6072472288572</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>264.9970102947662</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>11.66798279318564</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>190.5597908559918</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>39.44229496090526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>12.27094238504941</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>188.2024426275595</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>254.1123845104149</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>308.1458232469789</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>139.3108928771022</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124902</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>67.30958658978194</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.6187736822062</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1845078632266</v>
+        <v>114.1845078632265</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.5940343340313</v>
       </c>
       <c r="S10" t="n">
-        <v>200.1027954790071</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2441817741499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.8380377881559</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.364597654988756e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.779258222237938e-12</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31157,7 +31157,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
         <v>0.08398246702897151</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707859</v>
+        <v>3.059097167707871</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878812</v>
+        <v>31.32897886878824</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580574</v>
+        <v>117.9358435580578</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377451</v>
+        <v>259.6370482377462</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468189</v>
+        <v>389.1286313468204</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930584</v>
+        <v>482.7484762930603</v>
       </c>
       <c r="M8" t="n">
-        <v>537.150695549283</v>
+        <v>537.1506955492852</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770331</v>
+        <v>545.8423553770351</v>
       </c>
       <c r="O8" t="n">
-        <v>515.423457915638</v>
+        <v>515.4234579156399</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878501</v>
+        <v>439.9019965878518</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693123</v>
+        <v>330.3480792693136</v>
       </c>
       <c r="R8" t="n">
-        <v>192.161012461029</v>
+        <v>192.1610124610297</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914291</v>
+        <v>69.70917670914318</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39119785164116</v>
+        <v>13.39119785164121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166287</v>
+        <v>0.2447277734166296</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.636761281759919</v>
+        <v>1.636761281759925</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857606</v>
+        <v>15.80766816857612</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989194</v>
+        <v>56.35340377989216</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385544</v>
+        <v>154.638047238555</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164689</v>
+        <v>264.30105311647</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908982</v>
+        <v>355.3853826908995</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546951</v>
+        <v>414.7179791546967</v>
       </c>
       <c r="N9" t="n">
-        <v>425.6943300310588</v>
+        <v>425.6943300310605</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404838</v>
+        <v>389.4271458404853</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406287</v>
+        <v>312.5496170406299</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611433</v>
+        <v>208.9311418611441</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6227750201466</v>
+        <v>101.622775020147</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093531</v>
+        <v>30.40212293093543</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900722</v>
+        <v>6.597296569900748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1076816632736789</v>
+        <v>0.1076816632736793</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252563</v>
+        <v>1.372205676252569</v>
       </c>
       <c r="H10" t="n">
-        <v>12.20015592159098</v>
+        <v>12.20015592159103</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403164</v>
+        <v>41.2659670640318</v>
       </c>
       <c r="J10" t="n">
-        <v>97.01494131105621</v>
+        <v>97.01494131105659</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864341</v>
+        <v>159.4253503864347</v>
       </c>
       <c r="L10" t="n">
-        <v>204.0095602675856</v>
+        <v>204.0095602675864</v>
       </c>
       <c r="M10" t="n">
-        <v>215.0994770511177</v>
+        <v>215.0994770511185</v>
       </c>
       <c r="N10" t="n">
-        <v>209.9848922578128</v>
+        <v>209.9848922578136</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397714</v>
+        <v>193.9550350397722</v>
       </c>
       <c r="P10" t="n">
-        <v>165.962039244219</v>
+        <v>165.9620392442197</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.9035134905669</v>
+        <v>114.9035134905674</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313796</v>
+        <v>61.6993570431382</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796512</v>
+        <v>23.91380255796521</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715495</v>
+        <v>5.863060616715519</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07484758234104899</v>
+        <v>0.07484758234104928</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202556</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256418</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147143</v>
+        <v>237.3367583732607</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5967179907257</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071847</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533297</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>460.7959092580826</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>671.3535095519898</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>232.1537035940586</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>276.96469254416</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>671.9287955253226</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>691.6611968462892</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>357.9244589488886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
         <v>407.5425384040863</v>
@@ -34708,7 +34708,7 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>531.6282106509938</v>
+        <v>488.4098351631629</v>
       </c>
       <c r="O2" t="n">
         <v>552.6880856233105</v>
@@ -34717,7 +34717,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>147.4786738942839</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>248.768981579367</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
@@ -34942,19 +34942,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>351.1655389334708</v>
       </c>
       <c r="O5" t="n">
-        <v>317.6558039850688</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>73.09871788457488</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>483.7866553801329</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.59114371105886</v>
+        <v>78.59114371105989</v>
       </c>
       <c r="K8" t="n">
-        <v>169.0387803018384</v>
+        <v>493.1841928730046</v>
       </c>
       <c r="L8" t="n">
+        <v>246.982061323073</v>
+      </c>
+      <c r="M8" t="n">
+        <v>306.8044623220125</v>
+      </c>
+      <c r="N8" t="n">
         <v>658.7614942451606</v>
       </c>
-      <c r="M8" t="n">
-        <v>306.8044623220103</v>
-      </c>
-      <c r="N8" t="n">
-        <v>316.4292917804422</v>
-      </c>
       <c r="O8" t="n">
-        <v>658.7614942451606</v>
+        <v>285.3252464939532</v>
       </c>
       <c r="P8" t="n">
-        <v>208.6690008325806</v>
+        <v>208.6690008325823</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.3736835122836</v>
+        <v>287.8198546298083</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.29189451988006</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.80042057188774</v>
+        <v>153.8914559122972</v>
       </c>
       <c r="K9" t="n">
-        <v>126.45961414211</v>
+        <v>390.9248511546896</v>
       </c>
       <c r="L9" t="n">
-        <v>587.6713482144831</v>
+        <v>562.2293460434311</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5839452326768</v>
+        <v>272.5839452326784</v>
       </c>
       <c r="N9" t="n">
-        <v>294.3526179477255</v>
+        <v>294.3526179477271</v>
       </c>
       <c r="O9" t="n">
-        <v>640.6932206727688</v>
+        <v>640.6932206727704</v>
       </c>
       <c r="P9" t="n">
-        <v>497.0379782662356</v>
+        <v>178.5752096262997</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.6008693171279</v>
+        <v>68.9493677751226</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65576119438343</v>
+        <v>3.655761194383814</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605513</v>
+        <v>137.1558585605519</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5995855279018</v>
+        <v>231.5995855279026</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129583</v>
+        <v>254.6833540129591</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370414</v>
+        <v>254.1170646370422</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538111</v>
+        <v>218.5401629538119</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091125</v>
+        <v>163.2405985091132</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887252</v>
+        <v>28.74147023887298</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458966</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457676</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.776068031381</v>
+        <v>105.9950462899274</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>42.62231057639544</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211632</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936576</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053078</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9544702837236</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>540.0117974686565</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>90.01966967204032</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36361,10 +36361,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37385,22 +37385,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>529.7947616033043</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>560.3194847629559</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
